--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32906c935fa0eb4f/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2959E65E-55D8-40F5-B350-6BD91C9C1EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{2959E65E-55D8-40F5-B350-6BD91C9C1EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{722BB6F0-A3EF-466F-A74E-3A6D859014EA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
-    <sheet name="Manufacturing" sheetId="3" r:id="rId3"/>
-    <sheet name="IP" sheetId="4" r:id="rId4"/>
+    <sheet name="Earnings Call Notes" sheetId="5" r:id="rId3"/>
+    <sheet name="Manufacturing" sheetId="3" r:id="rId4"/>
+    <sheet name="IP" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="167">
   <si>
     <t>Price</t>
   </si>
@@ -1367,11 +1368,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E310252-7C49-48D8-9A64-7380C8DB275B}">
   <dimension ref="A1:DE123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="W40" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="W58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD72" sqref="AD72"/>
+      <selection pane="bottomRight" activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -10567,6 +10568,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81634F39-E644-46A9-B245-D7F03606ADCB}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93975FF4-BC21-4380-828B-9AD627B5D152}">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -10701,7 +10722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F181E2A2-167A-4FDD-9F1F-646C0DABC3EE}">
   <dimension ref="A1"/>
   <sheetViews>
